--- a/clothA/src/main/webapp/exelDefalt/재고 추가 엑셀 형식.xlsx
+++ b/clothA/src/main/webapp/exelDefalt/재고 추가 엑셀 형식.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -464,8 +464,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1100</v>
+      <c r="A2">
+        <v>1400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -475,8 +475,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1100</v>
+      <c r="A3">
+        <v>1400</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -486,8 +486,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>1100</v>
+      <c r="A4">
+        <v>1400</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -497,8 +497,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1100</v>
+      <c r="A5">
+        <v>1400</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -508,8 +508,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>1100</v>
+      <c r="A6">
+        <v>1400</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -519,8 +519,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>1100</v>
+      <c r="A7">
+        <v>1400</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -530,8 +530,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>1100</v>
+      <c r="A8">
+        <v>1400</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -541,8 +541,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1100</v>
+      <c r="A9">
+        <v>1400</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -552,8 +552,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>1100</v>
+      <c r="A10">
+        <v>1400</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -563,8 +563,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>1100</v>
+      <c r="A11">
+        <v>1400</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -574,8 +574,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>1100</v>
+      <c r="A12">
+        <v>1400</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -585,8 +585,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>1100</v>
+      <c r="A13">
+        <v>1400</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
